--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,139 +40,139 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>energy</t>
@@ -181,37 +181,19 @@
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -569,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -738,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8823529411764706</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7597402597402597</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C9">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3684210526315789</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3090128755364807</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,707 +1138,539 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+      <c r="L13">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.725</v>
+      </c>
+      <c r="L15">
+        <v>87</v>
+      </c>
+      <c r="M15">
+        <v>87</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.71875</v>
+      </c>
+      <c r="L18">
+        <v>115</v>
+      </c>
+      <c r="M18">
+        <v>115</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.7075471698113207</v>
+      </c>
+      <c r="L19">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>75</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K13">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L13">
+      <c r="K20">
+        <v>0.6971830985915493</v>
+      </c>
+      <c r="L20">
+        <v>99</v>
+      </c>
+      <c r="M20">
+        <v>99</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L23">
+        <v>57</v>
+      </c>
+      <c r="M23">
+        <v>57</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>0.58</v>
+      </c>
+      <c r="L24">
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>0.5143603133159269</v>
+      </c>
+      <c r="L27">
+        <v>197</v>
+      </c>
+      <c r="M27">
+        <v>197</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.4470588235294118</v>
+      </c>
+      <c r="L29">
+        <v>152</v>
+      </c>
+      <c r="M29">
+        <v>152</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>19</v>
       </c>
-      <c r="M13">
-        <v>19</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>19</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L14">
-        <v>43</v>
-      </c>
-      <c r="M14">
-        <v>43</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2906976744186047</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>61</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.25</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.7</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1625</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>18</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>101</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.68</v>
-      </c>
-      <c r="L19">
-        <v>17</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>179</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.6551724137931034</v>
-      </c>
-      <c r="L21">
-        <v>19</v>
-      </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.6301369863013698</v>
-      </c>
-      <c r="L22">
-        <v>46</v>
-      </c>
-      <c r="M22">
-        <v>46</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K24">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K31">
+        <v>0.4101694915254237</v>
+      </c>
+      <c r="L31">
+        <v>121</v>
+      </c>
+      <c r="M31">
+        <v>121</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.5486111111111112</v>
-      </c>
-      <c r="L28">
-        <v>79</v>
-      </c>
-      <c r="M28">
-        <v>79</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+      <c r="K32">
+        <v>0.4044943820224719</v>
+      </c>
+      <c r="L32">
+        <v>36</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
-      <c r="M29">
-        <v>12</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.5258215962441315</v>
-      </c>
-      <c r="L31">
-        <v>112</v>
-      </c>
-      <c r="M31">
-        <v>112</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.5193798449612403</v>
-      </c>
-      <c r="L32">
-        <v>67</v>
-      </c>
-      <c r="M32">
-        <v>67</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1868,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4571428571428571</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1894,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.3305439330543933</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1920,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.325</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1946,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.358695652173913</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1972,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.296875</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1998,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.3157894736842105</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2024,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2050,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.01707317073170732</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2076,7 +1890,33 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>403</v>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42">
+        <v>0.005152979066022544</v>
+      </c>
+      <c r="L42">
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>0.89</v>
+      </c>
+      <c r="O42">
+        <v>0.11</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3089</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -40,148 +40,148 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
@@ -562,7 +562,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
@@ -820,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5993150684931506</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C7">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4482758620689655</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3421052631578947</v>
+        <v>0.24</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2533333333333334</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.186046511627907</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
@@ -1070,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.164021164021164</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1140939597315436</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1170,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7272727272727273</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1196,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.725</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1222,13 +1222,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1248,13 +1248,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1274,13 +1274,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1300,13 +1300,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1326,13 +1326,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6971830985915493</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L20">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1352,13 +1352,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1378,13 +1378,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.6470588235294118</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1404,13 +1404,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6063829787234043</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1430,13 +1430,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.58</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1456,13 +1456,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1482,13 +1482,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1508,13 +1508,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5143603133159269</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L27">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>186</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1534,13 +1534,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1560,13 +1560,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4470588235294118</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L29">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="M29">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1586,13 +1586,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4411764705882353</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1612,13 +1612,13 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4101694915254237</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L31">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M31">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1664,13 +1664,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.3617021276595745</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1690,13 +1690,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.3461538461538461</v>
+        <v>0.35</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1716,13 +1716,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.3305439330543933</v>
+        <v>0.328125</v>
       </c>
       <c r="L35">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>160</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1742,13 +1742,13 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.325</v>
+        <v>0.3179916317991632</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1768,13 +1768,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3150684931506849</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1794,13 +1794,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.296875</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1846,13 +1846,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.2</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1872,13 +1872,13 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.01677852348993289</v>
+        <v>0.01901565995525727</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1898,25 +1898,25 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.005152979066022544</v>
+        <v>0.005795235028976175</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
   </sheetData>
